--- a/TGNotebook/Test/МансардаПлатонTest_01.xlsx
+++ b/TGNotebook/Test/МансардаПлатонTest_01.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_AI\DS2_39_Интеграция в production. Часть 1\TG_boat_ChatGPR_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Proj\LLMT_01\TGNotebook\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB847C9B-63F8-4017-BE16-45D37B2E36D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{85976FF1-658F-4897-867E-64670EE3B7A9}"/>
+    <workbookView xWindow="840" yWindow="-110" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="gpt-3.5-turbo-0613" sheetId="1" r:id="rId1"/>
     <sheet name="gpt-3.5-turbo-16k" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gpt-3.5-turbo-0613'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gpt-3.5-turbo-0613'!$A$1:$E$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,22 +526,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B948C2FE-4F26-4C67-B857-6C22D5963454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="4" width="43.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="43.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -559,7 +559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -576,7 +576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="290" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -593,7 +593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -610,7 +610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -644,7 +644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -661,7 +661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -678,7 +678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -696,30 +696,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{B948C2FE-4F26-4C67-B857-6C22D5963454}"/>
+  <autoFilter ref="A1:E9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3288DFA3-69B8-4B95-838A-F2523D4D4451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="58.21875" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="58.1796875" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" customWidth="1"/>
+    <col min="5" max="5" width="48.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -736,7 +736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -831,7 +831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
